--- a/Sentiment.xlsx
+++ b/Sentiment.xlsx
@@ -14,57 +14,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>%n</t>
+  </si>
+  <si>
+    <t>%p</t>
+  </si>
+  <si>
+    <t>conclusion</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
   <si>
     <t>article</t>
   </si>
   <si>
-    <t>before</t>
-  </si>
-  <si>
-    <t>after</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>%p</t>
-  </si>
-  <si>
-    <t>%n</t>
-  </si>
-  <si>
-    <t>conclusion</t>
-  </si>
-  <si>
-    <t>final</t>
-  </si>
-  <si>
-    <t>bas</t>
-  </si>
-  <si>
-    <t>grab</t>
-  </si>
-  <si>
-    <t>ktm</t>
-  </si>
-  <si>
-    <t>ferry</t>
-  </si>
-  <si>
-    <t>flight</t>
-  </si>
-  <si>
-    <t>mrt</t>
-  </si>
-  <si>
-    <t>lrt</t>
-  </si>
-  <si>
-    <t>taxi</t>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Grab</t>
+  </si>
+  <si>
+    <t>Ktm</t>
+  </si>
+  <si>
+    <t>Ferry</t>
+  </si>
+  <si>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>Mrt</t>
+  </si>
+  <si>
+    <t>Lrt</t>
+  </si>
+  <si>
+    <t>Taxi</t>
   </si>
 </sst>
 </file>
@@ -422,271 +425,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B2">
         <v>854</v>
       </c>
       <c r="C2">
-        <v>503</v>
+        <v>471</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F2">
-        <v>5.566600397614314</v>
+        <v>9.554140127388536</v>
       </c>
       <c r="G2">
-        <v>6.958250497017893</v>
+        <v>7.643312101910828</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>55.55555555555556</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>10</v>
+      <c r="J2">
+        <v>55.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B3">
         <v>1241</v>
       </c>
       <c r="C3">
-        <v>714</v>
+        <v>677</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F3">
-        <v>6.442577030812324</v>
+        <v>4.874446085672083</v>
       </c>
       <c r="G3">
-        <v>3.92156862745098</v>
+        <v>8.124076809453472</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>62.16216216216216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>11</v>
+        <v>62.5</v>
+      </c>
+      <c r="J3">
+        <v>-62.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B4">
         <v>709</v>
       </c>
       <c r="C4">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F4">
-        <v>6.697459584295612</v>
+        <v>5.569620253164556</v>
       </c>
       <c r="G4">
-        <v>3.695150115473441</v>
+        <v>9.620253164556962</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>64.44444444444444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>12</v>
+        <v>63.33333333333333</v>
+      </c>
+      <c r="J4">
+        <v>-63.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B5">
         <v>1055</v>
       </c>
       <c r="C5">
-        <v>596</v>
+        <v>554</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F5">
-        <v>5.536912751677852</v>
+        <v>4.151624548736462</v>
       </c>
       <c r="G5">
-        <v>2.516778523489933</v>
+        <v>8.664259927797833</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>13</v>
+        <v>67.6056338028169</v>
+      </c>
+      <c r="J5">
+        <v>-67.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B6">
         <v>460</v>
       </c>
       <c r="C6">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>7.419354838709677</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="G6">
-        <v>3.225806451612903</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>69.6969696969697</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>14</v>
+        <v>76.92307692307693</v>
+      </c>
+      <c r="J6">
+        <v>-76.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B7">
         <v>1301</v>
       </c>
       <c r="C7">
-        <v>858</v>
+        <v>828</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F7">
-        <v>9.673659673659674</v>
+        <v>3.864734299516908</v>
       </c>
       <c r="G7">
-        <v>3.496503496503497</v>
+        <v>10.26570048309179</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>73.45132743362832</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>15</v>
+        <v>72.64957264957265</v>
+      </c>
+      <c r="J7">
+        <v>-72.65000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B8">
         <v>718</v>
       </c>
       <c r="C8">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E8">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F8">
-        <v>9.574468085106384</v>
+        <v>12.16216216216216</v>
       </c>
       <c r="G8">
-        <v>10.85106382978723</v>
+        <v>11.26126126126126</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>53.125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>16</v>
+        <v>51.92307692307693</v>
+      </c>
+      <c r="J8">
+        <v>51.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B9">
         <v>1600</v>
       </c>
       <c r="C9">
-        <v>940</v>
+        <v>895</v>
       </c>
       <c r="D9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F9">
-        <v>4.787234042553192</v>
+        <v>5.251396648044693</v>
       </c>
       <c r="G9">
-        <v>4.893617021276595</v>
+        <v>5.810055865921788</v>
       </c>
       <c r="H9" t="s">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>50.54945054945053</v>
+        <v>52.52525252525253</v>
+      </c>
+      <c r="J9">
+        <v>-52.53</v>
       </c>
     </row>
   </sheetData>
